--- a/seminar_9.xlsx
+++ b/seminar_9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uc201\Desktop\GB\HW\BusinessProcesses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668AFCEE-9A75-49C5-914D-0DE0DF9C6197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C456C6-B93D-4530-A3B4-01E5F0101D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A3004248-EC1D-4D49-A1F8-A89DBAD0A4DC}"/>
   </bookViews>
@@ -198,7 +198,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> RICE SCORE у гипотезы "ЭДО от сбера" выше, будем считать эту гипотезу приобретённой</t>
+      <t xml:space="preserve"> RICE SCORE у гипотезы "ЭДО от сбера" выше, будем считать эту гипотезу приорететной</t>
     </r>
   </si>
 </sst>
@@ -207,7 +207,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="_-* #,##0\ [$₽-419]_-;\-* #,##0\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ [$₽-419]_-;\-* #,##0\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -421,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -434,70 +434,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1002,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1299F7-467F-4CC3-9328-1E50A03F4B01}">
   <dimension ref="B1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1068,7 +1061,6 @@
     </row>
     <row r="11" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C11" s="3"/>
-      <c r="D11" s="15"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
@@ -1200,95 +1192,95 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="3"/>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="15">
         <v>3700</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="23"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16">
+      <c r="D36" s="15"/>
+      <c r="E36" s="15">
         <v>55000</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="15">
         <v>60000</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="15">
         <v>65000</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="21">
         <v>70000</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16">
+      <c r="D37" s="15"/>
+      <c r="E37" s="15">
         <v>5000</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="15">
         <v>6000</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="15">
         <v>7000</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="21">
         <v>8000</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="23">
         <f>-D35</f>
         <v>-3700</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="23">
         <f>E36-E37</f>
         <v>50000</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="23">
         <f t="shared" ref="F38:H38" si="0">F36-F37</f>
         <v>54000</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="23">
         <f t="shared" si="0"/>
         <v>58000</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="24">
         <f t="shared" si="0"/>
         <v>62000</v>
       </c>
@@ -1297,21 +1289,21 @@
       <c r="D39" s="14"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="28">
+      <c r="D41" s="25">
         <f>D38/1.1+E38/1.1^2+F38/1.1^3+G38/1.1^4+H38/1.1^5</f>
         <v>156641.57937547727</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1379,112 +1371,112 @@
     </row>
     <row r="73" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="74" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C74" s="32"/>
-      <c r="D74" s="33" t="s">
+      <c r="C74" s="29"/>
+      <c r="D74" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E74" s="34" t="s">
+      <c r="E74" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F74" s="34" t="s">
+      <c r="F74" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G74" s="35" t="s">
+      <c r="G74" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="30">
+      <c r="D75" s="27">
         <v>1000</v>
       </c>
-      <c r="E75" s="30">
+      <c r="E75" s="27">
         <v>400</v>
       </c>
-      <c r="F75" s="30">
+      <c r="F75" s="27">
         <v>200</v>
       </c>
-      <c r="G75" s="37">
+      <c r="G75" s="34">
         <v>100</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="30">
+      <c r="D76" s="27">
         <v>3</v>
       </c>
-      <c r="E76" s="30">
+      <c r="E76" s="27">
         <v>1</v>
       </c>
-      <c r="F76" s="30">
+      <c r="F76" s="27">
         <v>0.5</v>
       </c>
-      <c r="G76" s="37">
+      <c r="G76" s="34">
         <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="30">
+      <c r="D77" s="27">
         <v>0.8</v>
       </c>
-      <c r="E77" s="30">
+      <c r="E77" s="27">
         <v>0.8</v>
       </c>
-      <c r="F77" s="30">
+      <c r="F77" s="27">
         <v>0.8</v>
       </c>
-      <c r="G77" s="37">
+      <c r="G77" s="34">
         <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D78" s="30">
+      <c r="D78" s="27">
         <v>0.5</v>
       </c>
-      <c r="E78" s="30">
+      <c r="E78" s="27">
         <v>0.5</v>
       </c>
-      <c r="F78" s="30">
+      <c r="F78" s="27">
         <v>0.5</v>
       </c>
-      <c r="G78" s="37">
+      <c r="G78" s="34">
         <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C79" s="38"/>
-      <c r="D79" s="31"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="28"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C80" s="39" t="s">
+      <c r="C80" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="40">
+      <c r="D80" s="37">
         <f>D75*D76*D77/D78</f>
         <v>4800</v>
       </c>
-      <c r="E80" s="40">
+      <c r="E80" s="37">
         <f>E75*E76*E77/E78</f>
         <v>640</v>
       </c>
-      <c r="F80" s="40">
+      <c r="F80" s="37">
         <f>F75*F76*F77/F78</f>
         <v>160</v>
       </c>
-      <c r="G80" s="41">
+      <c r="G80" s="38">
         <f>G75*G76*G77/G78</f>
         <v>80</v>
       </c>
